--- a/Meeting Minutes/Minutes of Meetings.xlsx
+++ b/Meeting Minutes/Minutes of Meetings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Sr. No</t>
   </si>
@@ -69,14 +69,30 @@
 browser and timetable management system shortlisted
 timetable management system chosen</t>
   </si>
+  <si>
+    <t>Academic Block</t>
+  </si>
+  <si>
+    <t>Get the requirements of the system</t>
+  </si>
+  <si>
+    <t>High Level requirements finalized</t>
+  </si>
+  <si>
+    <t>Team to prepare detailed SRS document for the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements discussed, Assigned team with the tasks </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm dd, yyyy"/>
     <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
+    <numFmt numFmtId="166" formatCode="mmm d, yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -111,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -126,6 +142,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,6 +510,38 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/Meeting Minutes/Minutes of Meetings.xlsx
+++ b/Meeting Minutes/Minutes of Meetings.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>Sr. No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">Sr. No</t>
   </si>
   <si>
     <t>Date</t>
@@ -34,19 +39,19 @@
     <t>Agenda</t>
   </si>
   <si>
-    <t>Decisions Made</t>
-  </si>
-  <si>
-    <t>Action Items</t>
-  </si>
-  <si>
-    <t>Key points</t>
-  </si>
-  <si>
-    <t>CS Faculty Offices</t>
-  </si>
-  <si>
-    <t>Hammad Shabbir,
+    <t xml:space="preserve">Decisions Made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Faculty Offices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammad Shabbir,
 Hasnain Ali,
 Ahmer Sultan
 Abdul Rafay (RP)</t>
@@ -55,40 +60,52 @@
     <t>None</t>
   </si>
   <si>
-    <t>Project idea generation
+    <t xml:space="preserve">Project idea generation
 discussion and decision</t>
   </si>
   <si>
-    <t>Project decided and approved</t>
-  </si>
-  <si>
-    <t>Team to prepare development Agreement and project proposal</t>
-  </si>
-  <si>
-    <t>Multiple projects discussed
+    <t xml:space="preserve">Project decided and approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team to prepare development Agreement and project proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple projects discussed
 browser and timetable management system shortlisted
 timetable management system chosen</t>
   </si>
   <si>
-    <t>Academic Block</t>
-  </si>
-  <si>
-    <t>Get the requirements of the system</t>
-  </si>
-  <si>
-    <t>High Level requirements finalized</t>
-  </si>
-  <si>
-    <t>Team to prepare detailed SRS document for the system</t>
+    <t xml:space="preserve">Academic Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the requirements of the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Level requirements finalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team to prepare detailed SRS document for the system</t>
   </si>
   <si>
     <t xml:space="preserve">Requirements discussed, Assigned team with the tasks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss the design and prototype of the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Design approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team to prepare the prototype of the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic design discussed, protoype discussed, assigned team the tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm dd, yyyy"/>
     <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
@@ -96,14 +113,15 @@
   </numFmts>
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12.000000"/>
+      <color theme="0" tint="0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -113,56 +131,77 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0"/>
+        <bgColor theme="4" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
       </fill>
-      <border/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
     </dxf>
     <dxf>
       <font/>
@@ -172,17 +211,13 @@
           <bgColor rgb="FF5B95F9"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
     </dxf>
     <dxf>
       <font/>
@@ -192,48 +227,333 @@
           <bgColor rgb="FFE8F0FE"/>
         </patternFill>
       </fill>
-      <border/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Sheet1-style" pivot="0" count="3">
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="0"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="2"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:J1" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table_1" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -290,7 +610,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -316,7 +636,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -393,7 +713,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -423,27 +743,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="4" max="4" width="15.38"/>
+    <col customWidth="1" min="1" max="1" width="5.8799999999999999"/>
+    <col customWidth="1" min="4" max="4" width="15.380000000000001"/>
     <col customWidth="1" min="5" max="5" width="53.75"/>
-    <col customWidth="1" min="6" max="6" width="9.38"/>
-    <col customWidth="1" min="7" max="7" width="40.88"/>
+    <col customWidth="1" min="6" max="6" width="9.3800000000000008"/>
+    <col customWidth="1" min="7" max="7" width="40.880000000000003"/>
     <col customWidth="1" min="8" max="8" width="27.25"/>
-    <col customWidth="1" min="9" max="9" width="53.13"/>
-    <col customWidth="1" min="10" max="10" width="49.63"/>
+    <col customWidth="1" min="9" max="9" width="53.130000000000003"/>
+    <col customWidth="1" min="10" max="10" width="52.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,15 +804,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>45966.0</v>
+        <v>45966</v>
       </c>
       <c r="C2" s="4">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -512,10 +836,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>46006.0</v>
+        <v>46006</v>
       </c>
       <c r="C3" s="7">
         <v>0.4375</v>
@@ -542,10 +866,45 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46035</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="1" horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="atEnd" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Meeting Minutes/Minutes of Meetings.xlsx
+++ b/Meeting Minutes/Minutes of Meetings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve">Basic design discussed, protoype discussed, assigned team the tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showcase the design to RP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design approved with minor improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Discussed, showcased and discussions about future of the project</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color theme="0" tint="0"/>
+      <color indexed="65"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -140,8 +149,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0"/>
-        <bgColor theme="4" tint="0"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor theme="4" tint="-0.499984740745262"/>
       </patternFill>
     </fill>
   </fills>
@@ -754,7 +763,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -765,9 +774,9 @@
     <col customWidth="1" min="5" max="5" width="53.75"/>
     <col customWidth="1" min="6" max="6" width="9.3800000000000008"/>
     <col customWidth="1" min="7" max="7" width="40.880000000000003"/>
-    <col customWidth="1" min="8" max="8" width="27.25"/>
+    <col customWidth="1" min="8" max="8" width="32.75"/>
     <col customWidth="1" min="9" max="9" width="53.130000000000003"/>
-    <col customWidth="1" min="10" max="10" width="52.75"/>
+    <col customWidth="1" min="10" max="10" width="55.630000000000003"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -896,6 +905,38 @@
       </c>
       <c r="J4" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46041</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
